--- a/도서대여 프로젝트/샘플-도서정보(2021-05-03).xlsx
+++ b/도서대여 프로젝트/샘플-도서정보(2021-05-03).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="도서목록" sheetId="2" r:id="rId1"/>
@@ -3513,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="D2" s="7" t="str">
         <f ca="1" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0013</v>
+        <v>A0030</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>671</v>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D31" ca="1" si="0" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0019</v>
+        <v>A0001</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>672</v>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0011</v>
+        <v>A0007</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>673</v>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0013</v>
+        <v>A0017</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>673</v>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0017</v>
+        <v>A0014</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>673</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0002</v>
+        <v>A0029</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>673</v>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0022</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>674</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0011</v>
+        <v>A0030</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>675</v>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0006</v>
+        <v>A0013</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>676</v>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0032</v>
+        <v>A0014</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>677</v>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0001</v>
+        <v>A0002</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>678</v>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0019</v>
+        <v>A0016</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>679</v>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0029</v>
+        <v>A0003</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>680</v>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0016</v>
+        <v>A0014</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>681</v>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0032</v>
+        <v>A0028</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>682</v>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0018</v>
+        <v>A0029</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>683</v>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0024</v>
+        <v>A0007</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>684</v>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0002</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>685</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0027</v>
+        <v>A0028</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>686</v>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0002</v>
+        <v>A0005</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>687</v>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0016</v>
+        <v>A0020</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>688</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="D23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0010</v>
+        <v>A0020</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>689</v>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="D24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0003</v>
+        <v>A0029</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>690</v>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="D25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0021</v>
+        <v>A0002</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>691</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0027</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>692</v>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0004</v>
+        <v>A0007</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>693</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0006</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>695</v>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0022</v>
+        <v>A0003</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>697</v>
@@ -6634,8 +6634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7250,7 +7250,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
